--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernesto/PycharmProjects/FOREX/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984EDB3A-EDCF-9944-A282-814DB42462DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FAC67-937C-EE47-BFCC-EDF4DB990697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>outcome</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>SR</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -309,7 +312,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -635,9 +638,12 @@
         <v>48</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AA1" s="1"/>
@@ -667,7 +673,9 @@
       <c r="H2">
         <v>1.84185</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
       <c r="AA2" s="3"/>
     </row>
     <row r="5" spans="1:27">

--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernesto/PycharmProjects/FOREX/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FAC67-937C-EE47-BFCC-EDF4DB990697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7B8C8-D7C6-C54C-99DE-37C87CBB17BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>outcome</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>short</t>
+  </si>
+  <si>
+    <t>trend_i</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -315,6 +318,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -610,9 +614,10 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -641,14 +646,17 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -659,7 +667,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="12">
-        <v>43520.958333333336</v>
+        <v>43520</v>
       </c>
       <c r="E2">
         <v>1.82416</v>
@@ -676,9 +684,13 @@
       <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="3"/>
+      <c r="J2" s="13">
+        <v>43438</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="AB2" s="3"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -691,7 +703,6 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -700,12 +711,13 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="5"/>
+      <c r="V5" s="4"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -716,7 +728,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernesto/PycharmProjects/FOREX/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7B8C8-D7C6-C54C-99DE-37C87CBB17BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8572077-719F-DE4D-B488-A4243C8665E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,15 +149,9 @@
     <t>entry</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>counter_dbtp</t>
   </si>
   <si>
-    <t>GBP_AUD 25FEB2019D</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>trend_i</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>GBP_AUD 25FEB2019H12</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -614,6 +614,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -625,7 +626,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -634,19 +635,19 @@
         <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -658,16 +659,16 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12">
-        <v>43520</v>
+        <v>43517.916666666664</v>
       </c>
       <c r="E2">
         <v>1.82416</v>
@@ -682,10 +683,10 @@
         <v>1.84185</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="13">
-        <v>43438</v>
+        <v>47</v>
+      </c>
+      <c r="J2" s="12">
+        <v>43437.916666666664</v>
       </c>
       <c r="K2" s="13"/>
       <c r="AB2" s="3"/>
